--- a/get_fb_info_from_social_buzz/Social Researcher-KEY.xlsx
+++ b/get_fb_info_from_social_buzz/Social Researcher-KEY.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCAC15-0D88-9A45-9BCF-143F27E22D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1F01F-4752-2048-A048-1BC9804410A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="4360" windowWidth="26880" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>User Key</t>
   </si>
@@ -32,320 +32,665 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>091386804e10b2cb434ec2d648e75c78</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>083defc338ba1edecbebeaab9c7f63b6</t>
+  </si>
+  <si>
+    <t>c31310cc34a43ddeefbc9d52372fc976</t>
+  </si>
+  <si>
+    <t>39b6a683576a5e42d26da1c56f627255</t>
+  </si>
+  <si>
+    <t>38d4aca3e5e6ad16325e1ee3898df0c1</t>
+  </si>
+  <si>
+    <t>eed79c6cffb9828a570922ec7642ff25</t>
+  </si>
+  <si>
+    <t>8c313ae9453595ebf3c24deab15ff6ae</t>
+  </si>
+  <si>
+    <t>eb61d2ad6fe46da2ce454d823d1c8930</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6874d6709fd604b5eaf6aef1063f4113</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae2d43d07e1c77787beae408a5c4f9db</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c040ac192883fa06521450b480ff6b01</t>
+  </si>
+  <si>
+    <t>0b0fb5a591e8ba563b8f93ced26ea63f</t>
+  </si>
+  <si>
+    <t>68aef7881bd290c2f69cba96fa5c5b60</t>
+  </si>
+  <si>
+    <t>d27aadbf47343f1dd1fe84ad19acad44</t>
+  </si>
+  <si>
+    <t>5c43bb70545896709b6210fcfa128f6e</t>
+  </si>
+  <si>
+    <t>c239a55326a36780149e77c9397b05b3</t>
+  </si>
+  <si>
+    <t>b21c0beeb289380520eeb32db5463f6c</t>
+  </si>
+  <si>
+    <t>0241c7d10d81623419b48e7070153b32</t>
+  </si>
+  <si>
+    <t>786465f29cf08cfd77a9d2ab91d00242</t>
+  </si>
+  <si>
+    <t>96d546e4530c8b4cede9f7bd87c927cf</t>
+  </si>
+  <si>
+    <t>1535723356e7e7b2c325a7cc649fb061</t>
+  </si>
+  <si>
+    <t>7bc39abcc10eccf1020cf1cbf9f9647b</t>
+  </si>
+  <si>
+    <t>7916c3c244a8b6d51fac09ecdd8def37</t>
+  </si>
+  <si>
+    <t>0333add6adafeb9e079a70628e651255</t>
+  </si>
+  <si>
+    <t>df2b9248eef2afb1e75a2e27d47a5044</t>
+  </si>
+  <si>
+    <t>ff39a05afddead9ea6e0e908cfb41fb3</t>
+  </si>
+  <si>
+    <t>419f6a26ecad18d2ff2fa75b3e5042e9</t>
+  </si>
+  <si>
+    <t>37fb02e2f46f228ab78ee758fc09263e</t>
+  </si>
+  <si>
+    <t>de3d8819e765ed9114c9266ab9fda086</t>
+  </si>
+  <si>
+    <t>89e46a1a26e87ab8621ed1b14f3f2cac</t>
+  </si>
+  <si>
+    <t>57a864d01ff53db869f60d11561721b5</t>
+  </si>
+  <si>
+    <t>8fa9852568f31aadc99b748ff5fe8f31</t>
+  </si>
+  <si>
+    <t>2c22998629f89d4535ff234efbe88ade</t>
+  </si>
+  <si>
+    <t>052a7bc279835f85b269e6c4125b05d2</t>
+  </si>
+  <si>
+    <t>c9c58f754767dde61c906e825443587b</t>
+  </si>
+  <si>
+    <t>3beeb885be8b93215b9f4bbb845a7a78</t>
+  </si>
+  <si>
+    <t>f01f0a108748acbc798d79f7a7b2c476</t>
+  </si>
+  <si>
+    <t>f4a2cab2bf626fa6b8a47d12fce16dbf</t>
+  </si>
+  <si>
+    <t>d5a56ff34cfb685cfcd112de9d2d1329</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8581dcbf55e07fb2e2a5af80b8b9c7ce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eeb38b40fb12a19b78022a13e5851300</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24a2be95dabbc4a2e025ec417ef80e69</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>d26bc1c06cc95049b37ab3ca8cd42bc2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24abf78aa1d073200115db3d7fe3574d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7ccf7033754694385f863780585b6209</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>773589309ab6d9e7c189eae2f554f345</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d7288f6842057dcc4787f89c4afa7fd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f44b9e9e40c23114e34461ae4f1cc564</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f64cb125cceb7e5f08297823dbf69bf2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0717ded912fbb529f359bade469b645</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>464d867ecf9e4f51a1d76b09ddbe978e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>27f0baf435ccef013d145cbccc7b0375</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4781f233f96df7b2f38fc775d1d0837</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>26c148a2e9fec71f7683bbe3fbda2f45</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0fb15d67b4530c743c12d609709fa96b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e00255b7d030a47d715d71c7db725a2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>228616d449dd6c222e5bc97ab79f83c3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>db0f4f097413d443fb5ceb6575ae8a5e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1d6e20247012a574196df9afc3954f4</t>
+  </si>
+  <si>
+    <t>4f0379389226f0d2110c24491de96fa4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7f1541b9afb816096fdab7eb7455d7c7</t>
+  </si>
+  <si>
+    <t>4a0d5826e701f3a3029dd3cfb04f4682</t>
+  </si>
+  <si>
+    <t>08f8609481a6a4f910de3aec10a56a17</t>
+  </si>
+  <si>
+    <t>d61fcb077ad2d8498088b072f51dad73</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3044dc0ff5e517650751cfa085fef1ed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>07cfb5b37cc60655cb91b779a1c1d2d8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>973bc6aabc012033774813bb74cbc4b8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>061249905936db621b99d11df4a789c2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>067977abdd6be4cccde6e5f2329f7ab5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0c87671c645b01be656786902364a06a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0e19f41cd9f09457c967472cf164a2b4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1266e4e3358c0d73bddb33e2a6cf0078</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13b847857e924eb05b9ebf499a1d324d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1550b1550648182d8cb4ea244e332997</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>17a0951f300298b70c44ae051acb6863</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36094a96da77dbecf5618fbfbe6fd561</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>37933dc43e6c72ee05c972049aec28ab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3f30d1b782a6c03d075311654d4de305</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>433a2ad6dd4bd537c0c191604e27d3a9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4383cb6ce7b938a57241619104392444</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>45c51a5e5860b2bba5db3b83b916243d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>46a9f3bb889db0001157baec840815da</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>472d7e0bec6caf84ea324ced703da66c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>57fe99db7f747e7008e1c5745b12a3f8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>58c94fc238346542ab372cfd0cfbca3b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5f61bd0a0322717fc05fcd5d4902b988</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>62dff79f8e033839f34ece47fda3cd27</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>710502b4085b1c99dd60b13e3932b81f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>73573615c1200b90b344bf99a588a267</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7936145550bbd7dda742a6ffd9bf298a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7f8bc55b2db33c64119a3da958301308</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800c3caf4359a404c34a2c891616baf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>8e6105aa4c586c1441151b717d9b23b2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37933dc43e6c72ee05c972049aec28ab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>99f000201f7b5d649bce30cb9eda9e00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a108979d2d015477a2bc084527d8f30a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>abe7eae5936244f1f23a996b2f8eabf4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad828250550c1e5d34e85d4c1db43f38</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>afe630f6f5717b0dcc7093b77505b884</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>b070009c46ab3ceefd5ad47609725549</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c28589263d406662da25576e9fdd62da</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>c72afeef6af68333d524cbdd18969206</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>d69e0b8ea97d49c2274e24cf2eb34785</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57fe99db7f747e7008e1c5745b12a3f8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>067977abdd6be4cccde6e5f2329f7ab5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5f61bd0a0322717fc05fcd5d4902b988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abe7eae5936244f1f23a996b2f8eabf4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c28589263d406662da25576e9fdd62da</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>99f000201f7b5d649bce30cb9eda9e00</t>
-  </si>
-  <si>
-    <t>36094a96da77dbecf5618fbfbe6fd561</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3f30d1b782a6c03d075311654d4de305</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7f8bc55b2db33c64119a3da958301308</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58c94fc238346542ab372cfd0cfbca3b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ed490c7a45fc20fbe970b9966796c31f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>62dff79f8e033839f34ece47fda3cd27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a108979d2d015477a2bc084527d8f30a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>afe630f6f5717b0dcc7093b77505b884</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8800c3caf4359a404c34a2c891616baf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4383cb6ce7b938a57241619104392444</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7936145550bbd7dda742a6ffd9bf298a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1550b1550648182d8cb4ea244e332997</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45c51a5e5860b2bba5db3b83b916243d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17a0951f300298b70c44ae051acb6863</t>
-  </si>
-  <si>
-    <t>061249905936db621b99d11df4a789c2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>710502b4085b1c99dd60b13e3932b81f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>472d7e0bec6caf84ea324ced703da66c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fd525bbd929d9681a75932b95b7eb9e0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>433a2ad6dd4bd537c0c191604e27d3a9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1266e4e3358c0d73bddb33e2a6cf0078</t>
-  </si>
-  <si>
-    <t>13b847857e924eb05b9ebf499a1d324d</t>
-  </si>
-  <si>
-    <t>0c87671c645b01be656786902364a06a</t>
-  </si>
-  <si>
-    <t>0e19f41cd9f09457c967472cf164a2b4</t>
-  </si>
-  <si>
-    <t>c72afeef6af68333d524cbdd18969206</t>
-  </si>
-  <si>
-    <t>46a9f3bb889db0001157baec840815da</t>
-  </si>
-  <si>
-    <t>b070009c46ab3ceefd5ad47609725549</t>
-  </si>
-  <si>
-    <t>ad828250550c1e5d34e85d4c1db43f38</t>
-  </si>
-  <si>
-    <t>73573615c1200b90b344bf99a588a267</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>005619fa87a352a9cc2960b484b080a5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1d4d5afcf22ee0e563c13c29f89c5770</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cccc05350988808753165369e6224c45</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5682eddcc0a1b5e6c6254155cd5638e3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2b975d4c7c0e2f042c9b0997a5111df0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4405146032053f4081801c37e524a647</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8d962cdf904fd5e8bff3ee6b5c21dc64</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5375b226154afe0dfba74750030005b0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2d0e40e998a9a4e458fed4dabca0d7d5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>397564f87e47e891c366ee1c09473fa0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3ff723c44b8bd926ba978493ffb5ab4b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>e42a5a500beae19295332b5a21a9b6ac</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5e8f9c7a35f2f7eab453abca290e3a92</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5e4db43eca1568e449f502a9efb0eefd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8d3d91f49cc505d65afb9b6a04ba9185</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>17d3b9885f4b08e27ec1f1015e171fe9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>78d0c603307346d0582edf0ab6c67e0a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2602e1f360faf7796c56885c0d662ce3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>9ce3034c44a4bfd037210295c8f68167</t>
-  </si>
-  <si>
-    <t>2602e1f360faf7796c56885c0d662ce3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>477b9496eb2063ad9e57beaa9741eee6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>79a7310415111e94c26b201f081b94a6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ccc1f24c9e9daaeb73f8566bf0b8a1cf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>c04d5aa380eb105e17cff479fffecc95</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>d348415c87ecfb18fba76af057affc18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>e56f034b075b72ace5a90d25a4b63621</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cf04bad2289a8df8361ec115a2d79b5d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>25d0d7e267d12ab8b90440f527d24ca2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>bd2203186174c2d28e94c201664d3fa5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6057a0f1b7bd57a1b3bdc7745a3db678</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8ee181e71b392e8d380a2e1588c78ffa</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>eaad8fe1bef949131bd8d5037f56f500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>b7d46eb6abf8edb2579d2eafee50f285</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5c34e3197bde48838a64b9c145266402</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>f6cc06ae08f5fa2d34ca10c7090e8446</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cc033131ae8f719fc1454650960aaff8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>556fc7609127ddac43e51169452c24ce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1b14f88caf02761872182f900e192253</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>da27ecf26de9d94edb0b66ce742e1bd6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>58b75ac92030333f6b4f00c334093f53</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2b7b5e2287bf3799f0426ad1acd827a3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1bd9f5774379efb6fe814d1bc616d240</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4e12a81021b68f898f3fe319dafe2b7c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1667e918f88e9135b3cb5c71a90d44a1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>eef2f53867bff96bd7f7f7321722f530</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>9f8ae4e957148e0e2f71e5a0db2d3505</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>05ac532893e36148e45fcd6f8ed643d1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>7e3f339c0c5999d11dbc768c9ec0092c</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8942bbf51e546dcb8aed0b8a36071840</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>552e05a4c77e7bc5a2f0b964acae3da9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>75ce4f889b7158acfc9fbdae10d175aa</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5625a4ab98db6f3015f3612cb023124d</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>7a8ffcb1f29c9f713d0334c599e1c580</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>938b641f6e86d92bccc6f68fbb72502a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>fc6ce661d51a4cb252ea4249f3818837</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>dfe2c5188c942084a7c81092ac18da73</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>a6c10d7ae390407859e312061ea59114</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>22574159d516e79dc742120daef00ed6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc7c1c5a09543e0ba1ea6ca2a1635f06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>58e02cfb79135f81ed3daf359d6a3eda</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8d40a63f441eb689e724ee711ec2cee9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3e78c4a3b9c1bcf65984f01f8f6196ba</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>531ca98e772de1cdafe215b3668b4cb5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>82f8256e42449e2870f411d1348d5e80</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50018f1ab3cae5a81c0c4b14929ff684</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7c966eaa3caeb215fcbbd4fc244a9d61</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a9be5907adce6454e9c56fd23c78c7e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5c40685979686872ab8c7c91e0a51fe9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>570875b561d48a658d04e207ce9edd79</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cecbef25b1b4370596b44db7167466da</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,18 +735,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="微軟正黑體"/>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -448,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,12 +801,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16"/>
@@ -778,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
@@ -786,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18">
@@ -794,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
@@ -802,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18">
@@ -810,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18">
@@ -818,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18">
@@ -826,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18">
@@ -834,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18">
@@ -850,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18">
@@ -858,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18">
@@ -866,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18">
@@ -874,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18">
@@ -882,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
@@ -890,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -898,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
@@ -906,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
@@ -914,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
@@ -922,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
@@ -930,7 +1263,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
@@ -938,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
@@ -946,7 +1279,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18">
@@ -954,7 +1287,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
@@ -962,7 +1295,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
@@ -970,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
@@ -978,7 +1311,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
@@ -986,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
@@ -994,7 +1327,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18">
@@ -1002,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18">
@@ -1010,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18">
@@ -1018,7 +1351,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
@@ -1026,7 +1359,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18">
@@ -1034,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18">
@@ -1042,7 +1375,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18">
@@ -1050,7 +1383,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18">
@@ -1058,7 +1391,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18">
@@ -1066,7 +1399,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18">
@@ -1074,7 +1407,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18">
@@ -1082,7 +1415,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18">
@@ -1090,126 +1423,126 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>42</v>
+      <c r="B42" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>43</v>
+      <c r="B43" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>44</v>
+      <c r="B44" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>45</v>
+      <c r="B45" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>46</v>
+      <c r="B46" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>47</v>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>48</v>
+      <c r="B48" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>49</v>
+      <c r="B49" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>50</v>
+      <c r="B50" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>51</v>
+      <c r="B51" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>52</v>
+      <c r="B52" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>53</v>
+      <c r="B53" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>54</v>
+      <c r="B54" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>55</v>
+      <c r="B55" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1217,88 +1550,88 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>56</v>
+      <c r="B57" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>58</v>
+      <c r="B58" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>59</v>
+      <c r="B59" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>60</v>
+      <c r="B60" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>61</v>
+      <c r="B61" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>62</v>
+      <c r="B62" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>63</v>
+      <c r="B63" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>64</v>
+      <c r="B64" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>65</v>
+      <c r="B65" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>66</v>
+      <c r="B66" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>67</v>
+      <c r="B67" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18">
@@ -1306,7 +1639,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18">
@@ -1314,7 +1647,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18">
@@ -1322,7 +1655,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18">
@@ -1330,7 +1663,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18">
@@ -1338,7 +1671,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18">
@@ -1346,7 +1679,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18">
@@ -1354,7 +1687,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18">
@@ -1362,7 +1695,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18">
@@ -1370,7 +1703,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18">
@@ -1378,7 +1711,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18">
@@ -1386,7 +1719,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18">
@@ -1394,7 +1727,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18">
@@ -1402,7 +1735,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18">
@@ -1410,7 +1743,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18">
@@ -1418,7 +1751,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18">
@@ -1426,7 +1759,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18">
@@ -1434,95 +1767,529 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18">
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>85</v>
+      <c r="B85" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18">
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>86</v>
+      <c r="B86" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18">
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>87</v>
+      <c r="B87" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18">
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>88</v>
+      <c r="B88" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18">
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>89</v>
+      <c r="B89" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18">
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>90</v>
+      <c r="B90" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18">
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>91</v>
+      <c r="B91" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18">
       <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>92</v>
+      <c r="B92" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18">
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>93</v>
+      <c r="B93" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18">
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>94</v>
+      <c r="B94" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18">
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18">
+      <c r="A96" s="5">
         <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/get_fb_info_from_social_buzz/Social Researcher-KEY.xlsx
+++ b/get_fb_info_from_social_buzz/Social Researcher-KEY.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1F01F-4752-2048-A048-1BC9804410A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59E647-6C19-1340-BA07-4DFBDFFE579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$B$71</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>User Key</t>
   </si>
@@ -683,6 +683,199 @@
   </si>
   <si>
     <t>cecbef25b1b4370596b44db7167466da</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>363f085023e6d8ea3dd6315d6cccf1cb</t>
+  </si>
+  <si>
+    <t>7a85ba8ab2cff64076d9a102624b7b0b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0829b16e927ea1cf390e9a55a8f2eaac</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7bb333423d47cac50197cb5f9eb75714</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>daa730a52af6bdc704177ee85957408a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81232f3b17e7258aa2e087f011396a78</t>
+  </si>
+  <si>
+    <t>8ad92baf4edbf563cea2c97c5f93cd96</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>32a6ed5bb3cbce01312129488c86e47a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9e91abf41de986b5d310989aa5d5fe28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>48fbb05636213d0c75e95092e0300754</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>188f3c2f9a010594a0adfcfd43469c11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ae4d940d126f7680822b96bf0bff9d6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>f89be9719d39e285ba1a6618f2d80e51</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>19a982c1706a2cf6b979acdbe18c0638</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>618ee076e6ddcea437103fbf496c1145</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>84ef3cf2d691038d4744b233dffb4d69</t>
+  </si>
+  <si>
+    <t>ca2f344f7f317079389597035b159c52</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>73ccb290c4d28967fd1a3c11eedecbbd</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffa3f80a9e15af37eaef5bb3d6e99b90</t>
+  </si>
+  <si>
+    <t>15f5471d5959f2ad3da7ccae8d10d5d8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5227e90494e73e214f812e5ab9214ebe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>19eb629108cda9258bcc1aa43b3ac53b</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b5ad474ff8ccf836ab14da4dbe2b69f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1168eccbfc2d1865ae9c9f3500a2fb28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9689ab7b336d3afb9ef27b97b7cbf547</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0573838ba76c7b11764e0bda595c40e2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7d2ff43e60bfdffbbf401d97d6b0519a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>49428413943eb6596cd0f86195515b03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4e40d07b07cfb7618bf40c7ccacc06bd</t>
+  </si>
+  <si>
+    <t>71f869a45991a1ebcbf1e4c3b7e719d7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>73a07b7ddfed74f9f84d4bc4f4becc71</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>00c5b6fc22ee56fb78e5139c3f5be082</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>de148cd4f0d53bbe473261cad7536ac1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a59d631a4309570ac5e5b4c6851c3875</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4730877a98867634f94b462d93de5b2f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1495d7bbb299461422e708eef1e4464e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb1446842a515eea2d854752af850f9f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a7b8d891ad9c9b97d6ccef2b772ab822</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d63cf267ad83528932e897f46271723</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>b158d19f9164fb2d015603b0a583d4a9</t>
+  </si>
+  <si>
+    <t>a615b9e03970ae45945f885eeecb32e0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>071a92d7a1d1dd348389b62f8e447875</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a68511db0765ea7c6d8872982c4fe0d4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3a0ca8549ad23cac19b08d19514df4a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1342534ad27e86d9db9cbd93f0ee039a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>88b938076ea57f0012273d05a600d2bf</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7709cca11c77fc826da4d3b4b7c48f1f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100cd5085fb123010295b09dfd731226</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8f01f3f552da8d99eddad649415fead6</t>
+  </si>
+  <si>
+    <t>66a95c29ab98bfedc0ab4fc904fcd28b</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1085,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="16"/>
@@ -1111,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
@@ -1119,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18">
@@ -1127,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
@@ -1135,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18">
@@ -1143,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18">
@@ -1151,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18">
@@ -1159,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18">
@@ -1167,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18">
@@ -1175,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18">
@@ -1183,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18">
@@ -1191,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18">
@@ -1199,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18">
@@ -1207,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18">
@@ -1215,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18">
@@ -1223,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -1231,7 +1424,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
@@ -1239,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
@@ -1247,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
@@ -1255,7 +1448,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
@@ -1263,7 +1456,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
@@ -1271,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
@@ -1279,7 +1472,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18">
@@ -1287,7 +1480,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
@@ -1295,7 +1488,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
@@ -1303,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
@@ -1311,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18">
@@ -1319,7 +1512,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18">
@@ -1327,7 +1520,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18">
@@ -1335,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18">
@@ -1343,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18">
@@ -1351,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
@@ -1359,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18">
@@ -1367,7 +1560,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18">
@@ -1375,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18">
@@ -1383,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18">
@@ -1391,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18">
@@ -1399,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18">
@@ -1407,7 +1600,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18">
@@ -1415,7 +1608,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18">
@@ -1423,7 +1616,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18">
@@ -1431,7 +1624,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18">
@@ -1439,7 +1632,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18">
@@ -1447,7 +1640,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18">
@@ -1455,7 +1648,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18">
@@ -1463,7 +1656,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18">
@@ -1471,7 +1664,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18">
@@ -1479,7 +1672,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18">
@@ -1487,7 +1680,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
@@ -1495,7 +1688,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
@@ -1503,7 +1696,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
@@ -1511,7 +1704,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18">
@@ -1519,7 +1712,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18">
@@ -1527,7 +1720,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18">
@@ -1535,7 +1728,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18">
@@ -1543,7 +1736,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18">
@@ -1551,7 +1744,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18">
@@ -1559,7 +1752,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18">
@@ -1567,7 +1760,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18">
@@ -1575,7 +1768,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18">
@@ -1583,7 +1776,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18">
@@ -1591,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18">
@@ -1599,7 +1792,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18">
@@ -1607,7 +1800,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18">
@@ -1615,7 +1808,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18">
@@ -1623,7 +1816,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18">
@@ -1631,7 +1824,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18">
@@ -1639,7 +1832,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18">
@@ -1647,7 +1840,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18">
@@ -1655,7 +1848,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18">
@@ -1663,7 +1856,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18">
@@ -1671,7 +1864,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18">
@@ -1679,7 +1872,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18">
@@ -1687,7 +1880,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18">
@@ -1695,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18">
@@ -1703,7 +1896,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18">
@@ -1711,7 +1904,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18">
@@ -1719,7 +1912,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18">
@@ -1727,7 +1920,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18">
@@ -1735,7 +1928,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18">
@@ -1743,7 +1936,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18">
@@ -1751,7 +1944,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18">
@@ -1759,7 +1952,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18">
@@ -1767,7 +1960,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18">
@@ -1775,7 +1968,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18">
@@ -1783,7 +1976,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18">
@@ -1791,7 +1984,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18">
@@ -1799,7 +1992,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18">
@@ -1807,7 +2000,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18">
@@ -1815,7 +2008,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18">
@@ -1823,7 +2016,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18">
@@ -1831,7 +2024,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18">
@@ -1839,7 +2032,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18">
@@ -1847,7 +2040,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18">
@@ -1855,7 +2048,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18">
@@ -1863,7 +2056,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18">
@@ -1871,7 +2064,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18">
@@ -1879,7 +2072,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18">
@@ -1887,7 +2080,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18">
@@ -1895,7 +2088,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18">
@@ -1903,7 +2096,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18">
@@ -1911,7 +2104,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18">
@@ -1919,7 +2112,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18">
@@ -1927,7 +2120,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18">
@@ -1935,7 +2128,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18">
@@ -1943,7 +2136,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18">
@@ -1951,7 +2144,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18">
@@ -1959,336 +2152,586 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="B109" s="6" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="B110" s="6" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="B111" s="6" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="B112" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="6" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="6" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="6" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="6" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="6" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="6" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="6" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="6" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="6" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="6" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="6" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="6" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="6" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="6" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="6" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="6" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="6" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="6" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="6" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="6" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="6" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="6" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="6" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="6" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="6" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="6" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="6" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="6" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="6" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="6" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="6" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="6" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="6" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="6" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="6" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="6" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="6" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="6" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="6" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="6" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="6" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="6" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="6" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="6" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="6" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="6" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="6" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="6" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="6" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="6" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="6" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="6" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="6" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="6" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="6" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="6" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="6" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="6" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="6" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="6" t="s">
         <v>174</v>
       </c>
     </row>
